--- a/stats-Results.xlsx
+++ b/stats-Results.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2023-01-13" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2023-01-18" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,16 +480,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35.42</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.02</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.23</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>40.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49.18</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8.970000000000001</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -561,16 +561,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>78.63</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>61.43</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.91</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>86.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>70.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>69.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>50.66</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>53.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>81.14</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>41.61</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46.62</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>91.52</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.04</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>68.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>51.03</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>44.31</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>35.26</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>63.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>60.28</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>32.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>82.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>83.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.84</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>54.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>62.36</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.68</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>32.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>83.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>91.61</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>13.59</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>79.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -831,16 +831,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74.81</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.26</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>79.47</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>41.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -858,16 +858,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30.23</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>44.91</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>26.24</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>76.84</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>81.53</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>46.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -912,16 +912,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9.56</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>44.48</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>20.13</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>75.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -939,16 +939,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>88.39</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>64.56</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>83.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -969,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>23.41</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10.59</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>44.9</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>13.15</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>64.20999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>85.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>93.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>59.1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>56.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1047,16 +1047,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51.08</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>98.22</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>27.18</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>83.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1074,16 +1074,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63.67</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>70.97</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>67.91</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>55.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>83.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>75.28</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>67.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>25.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1128,16 +1128,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48.09</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>42.13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>17.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1155,16 +1155,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30.34</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>43.35</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>31.19</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>50.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>98.34</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>81.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>13.66</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>68.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>88.33</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>79.94</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>27.96</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>63.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96.09</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>69.48</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>10.77</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>60.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1263,16 +1263,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>87.93000000000001</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>79.75</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>36.89</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.76000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>49.46</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>39.47</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>22.93</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>71.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>89.83</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>77.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>28.15</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>7.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1371,16 +1371,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>55.68</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>79.27</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>42.29</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>62.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>93.69</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>90.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>76.05</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>77.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1425,16 +1425,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>68.44</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>26.01</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>42.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>79.62</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>95.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>19.24</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>48.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1479,16 +1479,16 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>29.53</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>27.85</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>61.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1506,16 +1506,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>41.09</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.49</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>6.22</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>26.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1533,16 +1533,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>78.02</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>67.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>40.44</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>70.43000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1560,16 +1560,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>82.81</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>84.19</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>25.15</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>54.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1587,16 +1587,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>44.76</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>96.03</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>25.7</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>73.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>28.64</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1641,16 +1641,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17.71</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>33.65</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>11.62</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>31.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1668,16 +1668,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>65.67</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>73.97</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.07</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1695,16 +1695,16 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>54.48</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>93.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>75.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1722,16 +1722,16 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>53.55</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>65.08</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>66.36</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>63.37</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
